--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H2">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I2">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J2">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.11444</v>
+        <v>0.447544</v>
       </c>
       <c r="N2">
-        <v>0.34332</v>
+        <v>1.342632</v>
       </c>
       <c r="O2">
-        <v>0.04202024712047114</v>
+        <v>0.7763270417995833</v>
       </c>
       <c r="P2">
-        <v>0.05713542053247177</v>
+        <v>0.8388713182324267</v>
       </c>
       <c r="Q2">
-        <v>0.2973720729733333</v>
+        <v>1.525377492338667</v>
       </c>
       <c r="R2">
-        <v>2.67634865676</v>
+        <v>13.728397431048</v>
       </c>
       <c r="S2">
-        <v>0.02090714261530281</v>
+        <v>0.500919635651095</v>
       </c>
       <c r="T2">
-        <v>0.03131395524348424</v>
+        <v>0.5572135820289802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H3">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I3">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J3">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.447544</v>
+        <v>0.128945</v>
       </c>
       <c r="N3">
-        <v>1.342632</v>
+        <v>0.25789</v>
       </c>
       <c r="O3">
-        <v>0.1643298626117104</v>
+        <v>0.2236729582004167</v>
       </c>
       <c r="P3">
-        <v>0.2234412324954959</v>
+        <v>0.1611286817675733</v>
       </c>
       <c r="Q3">
-        <v>1.162942039730667</v>
+        <v>0.4394870688683334</v>
       </c>
       <c r="R3">
-        <v>10.466478357576</v>
+        <v>2.63692241321</v>
       </c>
       <c r="S3">
-        <v>0.08176220058216604</v>
+        <v>0.1443234238846469</v>
       </c>
       <c r="T3">
-        <v>0.1224604402786606</v>
+        <v>0.107028441650023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.883041</v>
+      </c>
+      <c r="H4">
+        <v>2.649123</v>
+      </c>
+      <c r="I4">
+        <v>0.1671716448405473</v>
+      </c>
+      <c r="J4">
+        <v>0.172093957508863</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.598497666666667</v>
-      </c>
-      <c r="H4">
-        <v>7.795493</v>
-      </c>
-      <c r="I4">
-        <v>0.4975492541812637</v>
-      </c>
-      <c r="J4">
-        <v>0.5480655423843006</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.161465</v>
+        <v>0.447544</v>
       </c>
       <c r="N4">
-        <v>4.322929999999999</v>
+        <v>1.342632</v>
       </c>
       <c r="O4">
-        <v>0.7936498902678185</v>
+        <v>0.7763270417995833</v>
       </c>
       <c r="P4">
-        <v>0.7194233469720324</v>
+        <v>0.8388713182324267</v>
       </c>
       <c r="Q4">
-        <v>5.616561759081667</v>
+        <v>0.395199701304</v>
       </c>
       <c r="R4">
-        <v>33.69937055449</v>
+        <v>3.556797311736</v>
       </c>
       <c r="S4">
-        <v>0.3948799109837949</v>
+        <v>0.1297798685118327</v>
       </c>
       <c r="T4">
-        <v>0.3942911468621558</v>
+        <v>0.1443646849952951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,45 +732,45 @@
         <v>2.649123</v>
       </c>
       <c r="I5">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J5">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.11444</v>
+        <v>0.128945</v>
       </c>
       <c r="N5">
-        <v>0.34332</v>
+        <v>0.25789</v>
       </c>
       <c r="O5">
-        <v>0.04202024712047114</v>
+        <v>0.2236729582004167</v>
       </c>
       <c r="P5">
-        <v>0.05713542053247177</v>
+        <v>0.1611286817675733</v>
       </c>
       <c r="Q5">
-        <v>0.10105521204</v>
+        <v>0.113863721745</v>
       </c>
       <c r="R5">
-        <v>0.90949690836</v>
+        <v>0.68318233047</v>
       </c>
       <c r="S5">
-        <v>0.007104822282115938</v>
+        <v>0.03739177632871464</v>
       </c>
       <c r="T5">
-        <v>0.01064134353741126</v>
+        <v>0.02772927251356787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.883041</v>
+        <v>0.204179</v>
       </c>
       <c r="H6">
-        <v>2.649123</v>
+        <v>0.612537</v>
       </c>
       <c r="I6">
-        <v>0.1690809257200836</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J6">
-        <v>0.1862477503138962</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,27 +812,27 @@
         <v>1.342632</v>
       </c>
       <c r="O6">
-        <v>0.1643298626117104</v>
+        <v>0.7763270417995833</v>
       </c>
       <c r="P6">
-        <v>0.2234412324954959</v>
+        <v>0.8388713182324267</v>
       </c>
       <c r="Q6">
-        <v>0.395199701304</v>
+        <v>0.09137908637599999</v>
       </c>
       <c r="R6">
-        <v>3.556797311736</v>
+        <v>0.8224117773840001</v>
       </c>
       <c r="S6">
-        <v>0.02778504529384215</v>
+        <v>0.03000803334485883</v>
       </c>
       <c r="T6">
-        <v>0.04161542687965034</v>
+        <v>0.03338037193930335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.883041</v>
+        <v>0.204179</v>
       </c>
       <c r="H7">
-        <v>2.649123</v>
+        <v>0.612537</v>
       </c>
       <c r="I7">
-        <v>0.1690809257200836</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J7">
-        <v>0.1862477503138962</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.161465</v>
+        <v>0.128945</v>
       </c>
       <c r="N7">
-        <v>4.322929999999999</v>
+        <v>0.25789</v>
       </c>
       <c r="O7">
-        <v>0.7936498902678185</v>
+        <v>0.2236729582004167</v>
       </c>
       <c r="P7">
-        <v>0.7194233469720324</v>
+        <v>0.1611286817675733</v>
       </c>
       <c r="Q7">
-        <v>1.908662215065</v>
+        <v>0.026327861155</v>
       </c>
       <c r="R7">
-        <v>11.45197329039</v>
+        <v>0.15796716693</v>
       </c>
       <c r="S7">
-        <v>0.1341910581441255</v>
+        <v>0.008645822220056177</v>
       </c>
       <c r="T7">
-        <v>0.1339909798968346</v>
+        <v>0.006411633358527832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4532555</v>
+      </c>
+      <c r="H8">
+        <v>0.906511</v>
+      </c>
+      <c r="I8">
+        <v>0.08580741717318301</v>
+      </c>
+      <c r="J8">
+        <v>0.0588893250767582</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.255631</v>
-      </c>
-      <c r="H8">
-        <v>0.7668929999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.04894713396405229</v>
-      </c>
-      <c r="J8">
-        <v>0.05391674753549563</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.11444</v>
+        <v>0.447544</v>
       </c>
       <c r="N8">
-        <v>0.34332</v>
+        <v>1.342632</v>
       </c>
       <c r="O8">
-        <v>0.04202024712047114</v>
+        <v>0.7763270417995833</v>
       </c>
       <c r="P8">
-        <v>0.05713542053247177</v>
+        <v>0.8388713182324267</v>
       </c>
       <c r="Q8">
-        <v>0.02925441164</v>
+        <v>0.202851779492</v>
       </c>
       <c r="R8">
-        <v>0.26328970476</v>
+        <v>1.217110676952</v>
       </c>
       <c r="S8">
-        <v>0.002056770665008284</v>
+        <v>0.06661461833851993</v>
       </c>
       <c r="T8">
-        <v>0.003080556044183654</v>
+        <v>0.04940056575695805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.255631</v>
+        <v>0.4532555</v>
       </c>
       <c r="H9">
-        <v>0.7668929999999999</v>
+        <v>0.906511</v>
       </c>
       <c r="I9">
-        <v>0.04894713396405229</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J9">
-        <v>0.05391674753549563</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.447544</v>
+        <v>0.128945</v>
       </c>
       <c r="N9">
-        <v>1.342632</v>
+        <v>0.25789</v>
       </c>
       <c r="O9">
-        <v>0.1643298626117104</v>
+        <v>0.2236729582004167</v>
       </c>
       <c r="P9">
-        <v>0.2234412324954959</v>
+        <v>0.1611286817675733</v>
       </c>
       <c r="Q9">
-        <v>0.114406120264</v>
+        <v>0.0584450304475</v>
       </c>
       <c r="R9">
-        <v>1.029655082376</v>
+        <v>0.23378012179</v>
       </c>
       <c r="S9">
-        <v>0.008043475799549695</v>
+        <v>0.01919279883466308</v>
       </c>
       <c r="T9">
-        <v>0.01204722452147963</v>
+        <v>0.009488759319800149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.255631</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H10">
-        <v>0.7668929999999999</v>
+        <v>1.000309</v>
       </c>
       <c r="I10">
-        <v>0.04894713396405229</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J10">
-        <v>0.05391674753549563</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.161465</v>
+        <v>0.447544</v>
       </c>
       <c r="N10">
-        <v>4.322929999999999</v>
+        <v>1.342632</v>
       </c>
       <c r="O10">
-        <v>0.7936498902678185</v>
+        <v>0.7763270417995833</v>
       </c>
       <c r="P10">
-        <v>0.7194233469720324</v>
+        <v>0.8388713182324267</v>
       </c>
       <c r="Q10">
-        <v>0.5525374594149999</v>
+        <v>0.1492274303653334</v>
       </c>
       <c r="R10">
-        <v>3.315224756489999</v>
+        <v>1.343046873288</v>
       </c>
       <c r="S10">
-        <v>0.03884688749949431</v>
+        <v>0.04900488595327693</v>
       </c>
       <c r="T10">
-        <v>0.03878896696983234</v>
+        <v>0.05451211351189005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.4441305</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H11">
-        <v>2.888261</v>
+        <v>1.000309</v>
       </c>
       <c r="I11">
-        <v>0.2765159509021747</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J11">
-        <v>0.203060451919131</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.11444</v>
+        <v>0.128945</v>
       </c>
       <c r="N11">
-        <v>0.34332</v>
+        <v>0.25789</v>
       </c>
       <c r="O11">
-        <v>0.04202024712047114</v>
+        <v>0.2236729582004167</v>
       </c>
       <c r="P11">
-        <v>0.05713542053247177</v>
+        <v>0.1611286817675733</v>
       </c>
       <c r="Q11">
-        <v>0.16526629442</v>
+        <v>0.04299494800166668</v>
       </c>
       <c r="R11">
-        <v>0.99159776652</v>
+        <v>0.25796968801</v>
       </c>
       <c r="S11">
-        <v>0.01161926858966144</v>
+        <v>0.0141191369323358</v>
       </c>
       <c r="T11">
-        <v>0.01160194431391331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.4441305</v>
-      </c>
-      <c r="H12">
-        <v>2.888261</v>
-      </c>
-      <c r="I12">
-        <v>0.2765159509021747</v>
-      </c>
-      <c r="J12">
-        <v>0.203060451919131</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.447544</v>
-      </c>
-      <c r="N12">
-        <v>1.342632</v>
-      </c>
-      <c r="O12">
-        <v>0.1643298626117104</v>
-      </c>
-      <c r="P12">
-        <v>0.2234412324954959</v>
-      </c>
-      <c r="Q12">
-        <v>0.646311940492</v>
-      </c>
-      <c r="R12">
-        <v>3.877871642952</v>
-      </c>
-      <c r="S12">
-        <v>0.04543982822170083</v>
-      </c>
-      <c r="T12">
-        <v>0.04537207764790301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.4441305</v>
-      </c>
-      <c r="H13">
-        <v>2.888261</v>
-      </c>
-      <c r="I13">
-        <v>0.2765159509021747</v>
-      </c>
-      <c r="J13">
-        <v>0.203060451919131</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.161465</v>
-      </c>
-      <c r="N13">
-        <v>4.322929999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.7936498902678185</v>
-      </c>
-      <c r="P13">
-        <v>0.7194233469720324</v>
-      </c>
-      <c r="Q13">
-        <v>3.1214375311825</v>
-      </c>
-      <c r="R13">
-        <v>12.48575012473</v>
-      </c>
-      <c r="S13">
-        <v>0.2194568540908124</v>
-      </c>
-      <c r="T13">
-        <v>0.1460864299573147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.04129366666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.123881</v>
-      </c>
-      <c r="I14">
-        <v>0.007906735232425854</v>
-      </c>
-      <c r="J14">
-        <v>0.008709507847176508</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.11444</v>
-      </c>
-      <c r="N14">
-        <v>0.34332</v>
-      </c>
-      <c r="O14">
-        <v>0.04202024712047114</v>
-      </c>
-      <c r="P14">
-        <v>0.05713542053247177</v>
-      </c>
-      <c r="Q14">
-        <v>0.004725647213333333</v>
-      </c>
-      <c r="R14">
-        <v>0.04253082492</v>
-      </c>
-      <c r="S14">
-        <v>0.0003322429683826702</v>
-      </c>
-      <c r="T14">
-        <v>0.0004976213934792926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.04129366666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.123881</v>
-      </c>
-      <c r="I15">
-        <v>0.007906735232425854</v>
-      </c>
-      <c r="J15">
-        <v>0.008709507847176508</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.447544</v>
-      </c>
-      <c r="N15">
-        <v>1.342632</v>
-      </c>
-      <c r="O15">
-        <v>0.1643298626117104</v>
-      </c>
-      <c r="P15">
-        <v>0.2234412324954959</v>
-      </c>
-      <c r="Q15">
-        <v>0.01848073275466667</v>
-      </c>
-      <c r="R15">
-        <v>0.166326594792</v>
-      </c>
-      <c r="S15">
-        <v>0.001299312714451711</v>
-      </c>
-      <c r="T15">
-        <v>0.001946063167802312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.04129366666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.123881</v>
-      </c>
-      <c r="I16">
-        <v>0.007906735232425854</v>
-      </c>
-      <c r="J16">
-        <v>0.008709507847176508</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.161465</v>
-      </c>
-      <c r="N16">
-        <v>4.322929999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.7936498902678185</v>
-      </c>
-      <c r="P16">
-        <v>0.7194233469720324</v>
-      </c>
-      <c r="Q16">
-        <v>0.08925481522166666</v>
-      </c>
-      <c r="R16">
-        <v>0.5355288913299999</v>
-      </c>
-      <c r="S16">
-        <v>0.006275179549591474</v>
-      </c>
-      <c r="T16">
-        <v>0.006265823285894903</v>
+        <v>0.01047057492565448</v>
       </c>
     </row>
   </sheetData>
